--- a/teaching/traditional_assets/database/data/israel/israel_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_brokerage_investment_banking.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00685</v>
+        <v>0.04545</v>
       </c>
       <c r="E2">
-        <v>0.01195</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1004205428826303</v>
+        <v>0.2278840098639876</v>
       </c>
       <c r="H2">
-        <v>0.08143239454568625</v>
+        <v>0.1958083938061691</v>
       </c>
       <c r="I2">
-        <v>0.1452147317446158</v>
+        <v>0.1780932370476308</v>
       </c>
       <c r="J2">
-        <v>0.1221511556080369</v>
+        <v>0.1603562998767936</v>
       </c>
       <c r="K2">
-        <v>37.36</v>
+        <v>40.85</v>
       </c>
       <c r="L2">
-        <v>0.2380527590161845</v>
+        <v>0.2404199845801626</v>
       </c>
       <c r="M2">
-        <v>30.07</v>
+        <v>32.008</v>
       </c>
       <c r="N2">
-        <v>0.04351727231942575</v>
+        <v>0.02334816543876286</v>
       </c>
       <c r="O2">
-        <v>0.8048715203426124</v>
+        <v>0.7835495716034272</v>
       </c>
       <c r="P2">
-        <v>30.07</v>
+        <v>32.008</v>
       </c>
       <c r="Q2">
-        <v>0.04351727231942575</v>
+        <v>0.02334816543876286</v>
       </c>
       <c r="R2">
-        <v>0.8048715203426124</v>
+        <v>0.7835495716034272</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>74.41</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="V2">
-        <v>0.1076860736045384</v>
+        <v>0.06219272011087607</v>
       </c>
       <c r="W2">
-        <v>0.09637561779242174</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="X2">
-        <v>0.04503324826364086</v>
+        <v>0.03203504413603728</v>
       </c>
       <c r="Y2">
-        <v>0.05134236952878088</v>
+        <v>0.1213484145105793</v>
       </c>
       <c r="Z2">
-        <v>0.5871305649083427</v>
+        <v>0.752971363237523</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04498493425161696</v>
+        <v>0.03194827102861562</v>
       </c>
       <c r="AC2">
-        <v>-0.04493750172741556</v>
+        <v>-0.03194827102861562</v>
       </c>
       <c r="AD2">
-        <v>53.864</v>
+        <v>99.331</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>53.864</v>
+        <v>99.331</v>
       </c>
       <c r="AG2">
-        <v>-20.546</v>
+        <v>14.071</v>
       </c>
       <c r="AH2">
-        <v>0.07231484290881166</v>
+        <v>0.06756149203764579</v>
       </c>
       <c r="AI2">
-        <v>0.1776610902950024</v>
+        <v>0.2400917526545667</v>
       </c>
       <c r="AJ2">
-        <v>-0.03064536337113913</v>
+        <v>0.01015977951884913</v>
       </c>
       <c r="AK2">
-        <v>-0.08980915663493229</v>
+        <v>0.04283918029842203</v>
       </c>
       <c r="AL2">
-        <v>2.34</v>
+        <v>4.234</v>
       </c>
       <c r="AM2">
-        <v>2.267</v>
+        <v>3.36</v>
       </c>
       <c r="AN2">
-        <v>1.969433272394881</v>
+        <v>2.846976210948696</v>
       </c>
       <c r="AO2">
-        <v>9.73931623931624</v>
+        <v>7.146905999055267</v>
       </c>
       <c r="AP2">
-        <v>-0.7512248628884826</v>
+        <v>0.4032960733734594</v>
       </c>
       <c r="AQ2">
-        <v>10.05293339214821</v>
+        <v>9.005952380952381</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07389999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="E3">
-        <v>0.06309999999999999</v>
+        <v>0.335</v>
       </c>
       <c r="G3">
-        <v>0.1394460362941738</v>
+        <v>0.2671451355661882</v>
       </c>
       <c r="H3">
-        <v>0.1394460362941738</v>
+        <v>0.2671451355661882</v>
       </c>
       <c r="I3">
-        <v>0.2368672397325692</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="J3">
-        <v>0.1634280518678862</v>
+        <v>0.2209631981397845</v>
       </c>
       <c r="K3">
-        <v>11.7</v>
+        <v>20.4</v>
       </c>
       <c r="L3">
-        <v>0.1117478510028653</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="M3">
-        <v>5.61</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N3">
-        <v>0.03850377487989019</v>
+        <v>0.03464024127531237</v>
       </c>
       <c r="O3">
-        <v>0.4794871794871796</v>
+        <v>0.3941176470588235</v>
       </c>
       <c r="P3">
-        <v>5.61</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.03850377487989019</v>
+        <v>0.03464024127531237</v>
       </c>
       <c r="R3">
-        <v>0.4794871794871796</v>
+        <v>0.3941176470588235</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>23.6</v>
+        <v>42.1</v>
       </c>
       <c r="V3">
-        <v>0.1619766643788607</v>
+        <v>0.1813873330461008</v>
       </c>
       <c r="W3">
-        <v>0.09637561779242174</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="X3">
-        <v>0.04924712546895463</v>
+        <v>0.038353447416773</v>
       </c>
       <c r="Y3">
-        <v>0.04712849232346711</v>
+        <v>0.1150300112298435</v>
       </c>
       <c r="Z3">
-        <v>0.6924603174603176</v>
+        <v>0.8887313961729271</v>
       </c>
       <c r="AA3">
-        <v>0.1131674406783577</v>
+        <v>0.1963769315856058</v>
       </c>
       <c r="AB3">
-        <v>0.04513668936353209</v>
+        <v>0.03460912807610583</v>
       </c>
       <c r="AC3">
-        <v>0.06803075131482564</v>
+        <v>0.1617678035095</v>
       </c>
       <c r="AD3">
-        <v>31.7</v>
+        <v>87.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>31.7</v>
+        <v>87.3</v>
       </c>
       <c r="AG3">
-        <v>8.099999999999998</v>
+        <v>45.2</v>
       </c>
       <c r="AH3">
-        <v>0.1786922209695603</v>
+        <v>0.2733249843456481</v>
       </c>
       <c r="AI3">
-        <v>0.1868002357100766</v>
+        <v>0.3604459124690338</v>
       </c>
       <c r="AJ3">
-        <v>0.05266579973992197</v>
+        <v>0.1630003606202668</v>
       </c>
       <c r="AK3">
-        <v>0.05544147843942504</v>
+        <v>0.2258870564717641</v>
       </c>
       <c r="AL3">
-        <v>1.67</v>
+        <v>3.63</v>
       </c>
       <c r="AM3">
-        <v>1.67</v>
+        <v>3.63</v>
       </c>
       <c r="AN3">
-        <v>1.089347079037801</v>
+        <v>2.098557692307692</v>
       </c>
       <c r="AO3">
-        <v>14.85029940119761</v>
+        <v>10.24793388429752</v>
       </c>
       <c r="AP3">
-        <v>0.2783505154639174</v>
+        <v>1.086538461538461</v>
       </c>
       <c r="AQ3">
-        <v>14.85029940119761</v>
+        <v>10.24793388429752</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inbar Group Finance Ltd (TASE:INBR)</t>
+          <t>Atreyu Capital Markets Ltd (TASE:ATRY)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0698</v>
+        <v>0.0396</v>
       </c>
       <c r="E4">
-        <v>-0.227</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="G4">
-        <v>0.299738219895288</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.299738219895288</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2539267015706806</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2093918646798228</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.68</v>
+        <v>22.3</v>
       </c>
       <c r="L4">
-        <v>0.08900523560209425</v>
+        <v>0.8228782287822878</v>
       </c>
       <c r="M4">
-        <v>1.24</v>
+        <v>17.1</v>
       </c>
       <c r="N4">
-        <v>0.1443538998835856</v>
+        <v>0.07762142532909669</v>
       </c>
       <c r="O4">
-        <v>1.823529411764706</v>
+        <v>0.7668161434977578</v>
       </c>
       <c r="P4">
-        <v>1.24</v>
+        <v>17.1</v>
       </c>
       <c r="Q4">
-        <v>0.1443538998835856</v>
+        <v>0.07762142532909669</v>
       </c>
       <c r="R4">
-        <v>1.823529411764706</v>
+        <v>0.7668161434977578</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>1.99</v>
       </c>
       <c r="V4">
-        <v>1.513387660069849</v>
+        <v>0.009033136631865637</v>
       </c>
       <c r="W4">
-        <v>0.08751608751608753</v>
+        <v>0.3754208754208754</v>
       </c>
       <c r="X4">
-        <v>0.09361168932709625</v>
+        <v>0.03186505297360898</v>
       </c>
       <c r="Y4">
-        <v>-0.006095601811008725</v>
+        <v>0.3435558224472665</v>
       </c>
       <c r="Z4">
-        <v>0.1310013717421125</v>
+        <v>0.4911021709977892</v>
       </c>
       <c r="AA4">
-        <v>0.02743062150469558</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05109796378307137</v>
+        <v>0.0318499626590549</v>
       </c>
       <c r="AC4">
-        <v>-0.02366734227837579</v>
+        <v>-0.0318499626590549</v>
       </c>
       <c r="AD4">
-        <v>21.1</v>
+        <v>0.462</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>21.1</v>
+        <v>0.462</v>
       </c>
       <c r="AG4">
-        <v>8.100000000000001</v>
+        <v>-1.528</v>
       </c>
       <c r="AH4">
-        <v>0.7106769956214214</v>
+        <v>0.002092751469908771</v>
       </c>
       <c r="AI4">
-        <v>0.7243391692413319</v>
+        <v>0.007014667031064953</v>
       </c>
       <c r="AJ4">
-        <v>0.4853205512282804</v>
+        <v>-0.006984440421991845</v>
       </c>
       <c r="AK4">
-        <v>0.5021698698078115</v>
+        <v>-0.02392284569138276</v>
       </c>
       <c r="AL4">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.639</v>
-      </c>
-      <c r="AN4">
-        <v>10</v>
-      </c>
-      <c r="AO4">
-        <v>3.035993740219092</v>
-      </c>
-      <c r="AP4">
-        <v>3.838862559241707</v>
-      </c>
-      <c r="AQ4">
-        <v>3.035993740219092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atreyu Capital Markets Ltd (TASE:ATRY)</t>
+          <t>Poalim I.B.I.-Managing &amp; Underwriting Ltd (TASE:PIU)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,10 +981,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0266</v>
+        <v>0.0513</v>
       </c>
       <c r="E5">
-        <v>0.098</v>
+        <v>0.00178</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1011,28 +999,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>23.7</v>
+        <v>6.71</v>
       </c>
       <c r="L5">
-        <v>0.8229166666666666</v>
+        <v>0.3923976608187134</v>
       </c>
       <c r="M5">
-        <v>20.4</v>
+        <v>6.37</v>
       </c>
       <c r="N5">
-        <v>0.06825025092004015</v>
+        <v>0.05491379310344828</v>
       </c>
       <c r="O5">
-        <v>0.860759493670886</v>
+        <v>0.9493293591654247</v>
       </c>
       <c r="P5">
-        <v>20.4</v>
+        <v>6.37</v>
       </c>
       <c r="Q5">
-        <v>0.06825025092004015</v>
+        <v>0.05491379310344828</v>
       </c>
       <c r="R5">
-        <v>0.860759493670886</v>
+        <v>0.9493293591654247</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,61 +1029,64 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2.02</v>
+        <v>35.8</v>
       </c>
       <c r="V5">
-        <v>0.006758113081298094</v>
+        <v>0.3086206896551724</v>
       </c>
       <c r="W5">
-        <v>0.441340782122905</v>
+        <v>0.1690176322418136</v>
       </c>
       <c r="X5">
-        <v>0.04496827149373092</v>
+        <v>0.03203504413603728</v>
       </c>
       <c r="Y5">
-        <v>0.3963725106291741</v>
+        <v>0.1369825881057763</v>
       </c>
       <c r="Z5">
-        <v>0.6273143106077107</v>
+        <v>2.456543600057464</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04493750172741556</v>
+        <v>0.03194827102861562</v>
       </c>
       <c r="AC5">
-        <v>-0.04493750172741556</v>
+        <v>-0.03194827102861562</v>
       </c>
       <c r="AD5">
-        <v>0.492</v>
+        <v>1.38</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.492</v>
+        <v>1.38</v>
       </c>
       <c r="AG5">
-        <v>-1.528</v>
+        <v>-34.41999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.001643330483112441</v>
+        <v>0.01175668768103595</v>
       </c>
       <c r="AI5">
-        <v>0.008146774407206252</v>
+        <v>0.03256252949504483</v>
       </c>
       <c r="AJ5">
-        <v>-0.00513834523761484</v>
+        <v>-0.4219171365530766</v>
       </c>
       <c r="AK5">
-        <v>-0.0261769341465086</v>
+        <v>-5.231003039513673</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.874</v>
+      </c>
+      <c r="AQ5">
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Poalim I.B.I.-Managing &amp; Underwriting Ltd (TASE:PIU)</t>
+          <t>Inbar Group Finance Ltd (TASE:INBR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,46 +1106,43 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0403</v>
-      </c>
-      <c r="E6">
-        <v>-0.0392</v>
+        <v>-0.452</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.70739549839228</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.70739549839228</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-12.54019292604502</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-12.54019292604502</v>
       </c>
       <c r="K6">
-        <v>5.25</v>
+        <v>-5.45</v>
       </c>
       <c r="L6">
-        <v>0.3322784810126582</v>
+        <v>-17.52411575562701</v>
       </c>
       <c r="M6">
-        <v>2.82</v>
+        <v>0.498</v>
       </c>
       <c r="N6">
-        <v>0.03847203274215553</v>
+        <v>0.03952380952380952</v>
       </c>
       <c r="O6">
-        <v>0.5371428571428571</v>
+        <v>-0.09137614678899082</v>
       </c>
       <c r="P6">
-        <v>2.82</v>
+        <v>0.498</v>
       </c>
       <c r="Q6">
-        <v>0.03847203274215553</v>
+        <v>0.03952380952380952</v>
       </c>
       <c r="R6">
-        <v>0.5371428571428571</v>
+        <v>-0.09137614678899082</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,64 +1151,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>33.1</v>
+        <v>1.37</v>
       </c>
       <c r="V6">
-        <v>0.4515688949522511</v>
+        <v>0.1087301587301587</v>
       </c>
       <c r="W6">
-        <v>0.1504297994269341</v>
+        <v>-0.6829573934837092</v>
       </c>
       <c r="X6">
-        <v>0.04503324826364086</v>
+        <v>0.04559619654290829</v>
       </c>
       <c r="Y6">
-        <v>0.1053965511632932</v>
+        <v>-0.7285535900266175</v>
       </c>
       <c r="Z6">
-        <v>1.410714285714286</v>
+        <v>0.01466981132075472</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-0.1839622641509434</v>
       </c>
       <c r="AB6">
-        <v>0.04496380838642203</v>
+        <v>0.03775402978946575</v>
       </c>
       <c r="AC6">
-        <v>-0.04496380838642203</v>
+        <v>-0.2217162939404091</v>
       </c>
       <c r="AD6">
-        <v>0.361</v>
+        <v>10</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.361</v>
+        <v>10</v>
       </c>
       <c r="AG6">
-        <v>-32.739</v>
+        <v>8.629999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.004900829475570519</v>
+        <v>0.4424778761061947</v>
       </c>
       <c r="AI6">
-        <v>0.009011257831806495</v>
+        <v>0.800640512409928</v>
       </c>
       <c r="AJ6">
-        <v>-0.8071546559502973</v>
+        <v>0.4065002355157796</v>
       </c>
       <c r="AK6">
-        <v>-4.703203562706509</v>
+        <v>0.7760791366906474</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.546</v>
       </c>
       <c r="AM6">
-        <v>-0.064</v>
+        <v>0.546</v>
+      </c>
+      <c r="AN6">
+        <v>-2.597402597402597</v>
+      </c>
+      <c r="AO6">
+        <v>-7.142857142857142</v>
+      </c>
+      <c r="AP6">
+        <v>-2.241558441558441</v>
       </c>
       <c r="AQ6">
-        <v>-0</v>
+        <v>-7.142857142857142</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1237,7 @@
         </is>
       </c>
       <c r="K7">
-        <v>-3.97</v>
+        <v>-3.11</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1264,73 +1261,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2.69</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>0.01635258358662614</v>
+        <v>0.00506393214330928</v>
       </c>
       <c r="W7">
-        <v>-0.908466819221968</v>
+        <v>-0.8428184281842819</v>
       </c>
       <c r="X7">
-        <v>0.04496107097376343</v>
+        <v>0.03183282436559279</v>
       </c>
       <c r="Y7">
-        <v>-0.9534278901957315</v>
+        <v>-0.8746512525498746</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-5.895522388059702</v>
+        <v>-2.510322047894303</v>
       </c>
       <c r="AB7">
-        <v>0.04498493425161696</v>
+        <v>0.03183187709792352</v>
       </c>
       <c r="AC7">
-        <v>-5.940507322311319</v>
+        <v>-2.542153924992226</v>
       </c>
       <c r="AD7">
-        <v>0.211</v>
+        <v>0.189</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.211</v>
+        <v>0.189</v>
       </c>
       <c r="AG7">
-        <v>-2.479</v>
+        <v>-3.811</v>
       </c>
       <c r="AH7">
-        <v>0.001281031625088792</v>
+        <v>0.0002392135569537103</v>
       </c>
       <c r="AI7">
-        <v>0.05408869520635735</v>
+        <v>0.003721278229537892</v>
       </c>
       <c r="AJ7">
-        <v>-0.01530048573950291</v>
+        <v>-0.004848051556503145</v>
       </c>
       <c r="AK7">
-        <v>-2.047068538398019</v>
+        <v>-0.08145076834298659</v>
       </c>
       <c r="AL7">
-        <v>0.031</v>
+        <v>0.058</v>
       </c>
       <c r="AM7">
-        <v>0.022</v>
+        <v>0.058</v>
       </c>
       <c r="AN7">
-        <v>-0.05466321243523316</v>
+        <v>-0.06608391608391609</v>
       </c>
       <c r="AO7">
-        <v>-127.4193548387097</v>
+        <v>-52.41379310344827</v>
       </c>
       <c r="AP7">
-        <v>0.6422279792746114</v>
+        <v>1.332517482517483</v>
       </c>
       <c r="AQ7">
-        <v>-179.5454545454546</v>
+        <v>-52.41379310344827</v>
       </c>
     </row>
   </sheetData>
